--- a/maps/contratarPacoteDados/exportedScenarios/scenarios.xlsx
+++ b/maps/contratarPacoteDados/exportedScenarios/scenarios.xlsx
@@ -77,12 +77,12 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva informa que o cliente já possui um pacote ativado
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva informa que o cliente já possui um pacote ativado
 e que precisa consumi-lo antes de contratar um novo pacote;
-A URA Cognitiva transfere para o desambiguador.</t>
+5 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>2</t>
@@ -95,12 +95,12 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva informa que o cliente já possui um pacote ativado
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva informa que o cliente já possui um pacote ativado
 e que precisa consumi-lo antes de contratar um novo pacote;
-A URA Cognitiva agradece e encerra a ligação.</t>
+5 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>3</t>
@@ -114,12 +114,12 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva informa que está com um bloqueio financeiro e por isso está impedido
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva informa que está com um bloqueio financeiro e por isso está impedido
 de contratar um novo pacote;
-A URA Cognitiva transfere para o desambiguador.</t>
+5 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>4</t>
@@ -133,12 +133,12 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva informa que está com um bloqueio financeiro e por isso está impedido
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva informa que está com um bloqueio financeiro e por isso está impedido
 de contratar um novo pacote;
-A URA Cognitiva agradece e encerra a ligação.</t>
+5 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>5</t>
@@ -155,13 +155,13 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa o pacote de dados foi consumido e, por estar inadimplente,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa o pacote de dados foi consumido e, por estar inadimplente,
 a velocidade está reduzida e não pode contratar um novo pacote;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>6</t>
@@ -178,13 +178,13 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa o pacote de dados foi consumido e, por estar inadimplente,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa o pacote de dados foi consumido e, por estar inadimplente,
 a velocidade está reduzida e não pode contratar um novo pacote;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>7</t>
@@ -204,14 +204,14 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva informa que não existem pacotes disponiveis no momento;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva informa que não existem pacotes disponiveis no momento;
+7 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>8</t>
@@ -231,14 +231,14 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva informa que não existem pacotes disponiveis no momento;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva informa que não existem pacotes disponiveis no momento;
+7 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>9</t>
@@ -262,15 +262,15 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa o pacote foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - URA informa o pacote foi contratado;
+8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>10</t>
@@ -294,15 +294,15 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa o pacote foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - URA informa o pacote foi contratado;
+8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>11</t>
@@ -326,15 +326,15 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa o pacote não foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - URA informa o pacote não foi contratado;
+8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>12</t>
@@ -358,15 +358,15 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa o pacote não foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - URA informa o pacote não foi contratado;
+8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>13</t>
@@ -391,16 +391,16 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA informa o pacote foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - URA informa que precisa da senha única;
+8 - URA informa o pacote foi contratado;
+9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>14</t>
@@ -425,16 +425,16 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA informa o pacote foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - URA informa que precisa da senha única;
+8 - URA informa o pacote foi contratado;
+9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>15</t>
@@ -459,16 +459,16 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA informa o pacote não foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - URA informa que precisa da senha única;
+8 - URA informa o pacote não foi contratado;
+9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>16</t>
@@ -493,16 +493,16 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA informa o pacote não foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - URA informa que precisa da senha única;
+8 - URA informa o pacote não foi contratado;
+9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>17</t>
@@ -526,16 +526,16 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - URA informa que precisa da senha única;
+8 - URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
+9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>18</t>
@@ -559,16 +559,16 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - URA informa que precisa da senha única;
+8 - URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
+9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>19</t>
@@ -592,15 +592,15 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que não efetuou a contratação;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que não efetuou a contratação;
+8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>20</t>
@@ -624,15 +624,15 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que não efetuou a contratação;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que não efetuou a contratação;
+8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>21</t>
@@ -658,16 +658,16 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa o pacote foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - URA informa o pacote foi contratado;
+9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>22</t>
@@ -693,16 +693,16 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa o pacote foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - URA informa o pacote foi contratado;
+9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>23</t>
@@ -728,16 +728,16 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa o pacote não foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - URA informa o pacote não foi contratado;
+9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>24</t>
@@ -763,16 +763,16 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa o pacote não foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - URA informa o pacote não foi contratado;
+9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>25</t>
@@ -799,17 +799,17 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA informa o pacote foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - URA informa que precisa da senha única;
+9 - URA informa o pacote foi contratado;
+10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>26</t>
@@ -836,17 +836,17 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA informa o pacote foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - URA informa que precisa da senha única;
+9 - URA informa o pacote foi contratado;
+10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>27</t>
@@ -873,17 +873,17 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA informa o pacote não foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - URA informa que precisa da senha única;
+9 - URA informa o pacote não foi contratado;
+10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>28</t>
@@ -910,17 +910,17 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA informa o pacote não foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - URA informa que precisa da senha única;
+9 - URA informa o pacote não foi contratado;
+10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>29</t>
@@ -946,17 +946,17 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - URA informa que precisa da senha única;
+9 - URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
+10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>30</t>
@@ -982,17 +982,17 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - URA informa que precisa da senha única;
+9 - URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
+10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>31</t>
@@ -1018,16 +1018,16 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-A URA Cognitiva informa que não efetuou a contratação;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - A URA Cognitiva informa que não efetuou a contratação;
+9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>32</t>
@@ -1053,16 +1053,16 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-A URA Cognitiva informa que não efetuou a contratação;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - A URA Cognitiva informa que não efetuou a contratação;
+9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>33</t>
@@ -1085,15 +1085,15 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>34</t>
@@ -1116,15 +1116,15 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>35</t>
@@ -1184,12 +1184,12 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que não existem pacotes disponiveis no momento;
-A URA Cognitiva transfere para o desambiguador.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que não existem pacotes disponiveis no momento;
+6 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>38</t>
@@ -1209,12 +1209,12 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que não existem pacotes disponiveis no momento;
-A URA Cognitiva agradece e encerra a ligação.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que não existem pacotes disponiveis no momento;
+6 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>39</t>
@@ -1238,13 +1238,13 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa o pacote foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - URA informa o pacote foi contratado;
+7 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>40</t>
@@ -1268,13 +1268,13 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa o pacote foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - URA informa o pacote foi contratado;
+7 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>41</t>
@@ -1298,13 +1298,13 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa o pacote não foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - URA informa o pacote não foi contratado;
+7 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>42</t>
@@ -1328,13 +1328,13 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa o pacote não foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - URA informa o pacote não foi contratado;
+7 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>43</t>
@@ -1359,14 +1359,14 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA informa o pacote foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - URA informa que precisa da senha única;
+7 - URA informa o pacote foi contratado;
+8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>44</t>
@@ -1391,14 +1391,14 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA informa o pacote foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - URA informa que precisa da senha única;
+7 - URA informa o pacote foi contratado;
+8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>45</t>
@@ -1423,14 +1423,14 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA informa o pacote não foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - URA informa que precisa da senha única;
+7 - URA informa o pacote não foi contratado;
+8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>46</t>
@@ -1455,14 +1455,14 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA informa o pacote não foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - URA informa que precisa da senha única;
+7 - URA informa o pacote não foi contratado;
+8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>47</t>
@@ -1486,14 +1486,14 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
-A URA Cognitiva transfere para o desambiguador.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - URA informa que precisa da senha única;
+7 - URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
+8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>48</t>
@@ -1517,14 +1517,14 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
-A URA Cognitiva agradece e encerra a ligação.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - URA informa que precisa da senha única;
+7 - URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
+8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>49</t>
@@ -1548,13 +1548,13 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que não efetuou a contratação;
-A URA Cognitiva transfere para o desambiguador.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - A URA Cognitiva informa que não efetuou a contratação;
+7 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>50</t>
@@ -1578,13 +1578,13 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que não efetuou a contratação;
-A URA Cognitiva agradece e encerra a ligação.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - A URA Cognitiva informa que não efetuou a contratação;
+7 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>51</t>
@@ -1610,14 +1610,14 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa o pacote foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+7 - URA informa o pacote foi contratado;
+8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>52</t>
@@ -1643,14 +1643,14 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa o pacote foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+7 - URA informa o pacote foi contratado;
+8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>53</t>
@@ -1676,14 +1676,14 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa o pacote não foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+7 - URA informa o pacote não foi contratado;
+8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>54</t>
@@ -1709,14 +1709,14 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa o pacote não foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+7 - URA informa o pacote não foi contratado;
+8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>55</t>
@@ -1743,15 +1743,15 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA informa o pacote foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+7 - URA informa que precisa da senha única;
+8 - URA informa o pacote foi contratado;
+9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>56</t>
@@ -1778,15 +1778,15 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA informa o pacote foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+7 - URA informa que precisa da senha única;
+8 - URA informa o pacote foi contratado;
+9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>57</t>
@@ -1813,15 +1813,15 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA informa o pacote não foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+7 - URA informa que precisa da senha única;
+8 - URA informa o pacote não foi contratado;
+9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>58</t>
@@ -1848,15 +1848,15 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA informa o pacote não foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+7 - URA informa que precisa da senha única;
+8 - URA informa o pacote não foi contratado;
+9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>59</t>
@@ -1882,15 +1882,15 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
-A URA Cognitiva transfere para o desambiguador.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+7 - URA informa que precisa da senha única;
+8 - URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
+9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>60</t>
@@ -1916,15 +1916,15 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
-A URA Cognitiva agradece e encerra a ligação.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+7 - URA informa que precisa da senha única;
+8 - URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
+9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>61</t>
@@ -1950,14 +1950,14 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-A URA Cognitiva informa que não efetuou a contratação;
-A URA Cognitiva transfere para o desambiguador.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+7 - A URA Cognitiva informa que não efetuou a contratação;
+8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>62</t>
@@ -1983,14 +1983,14 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-A URA Cognitiva informa que não efetuou a contratação;
-A URA Cognitiva agradece e encerra a ligação.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+7 - A URA Cognitiva informa que não efetuou a contratação;
+8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>63</t>
@@ -2013,13 +2013,13 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-A URA Cognitiva transfere para o desambiguador.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+7 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>64</t>
@@ -2042,13 +2042,13 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-A URA Cognitiva agradece e encerra a ligação.</t>
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+6 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+7 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>65</t>
@@ -2106,13 +2106,13 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que o pacote de dados foi consumido e,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que o pacote de dados foi consumido e,
 que por não ser o titular, não poderá contratar um novo pacote;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>68</t>
@@ -2130,13 +2130,13 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que o pacote de dados foi consumido e,
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que o pacote de dados foi consumido e,
 que por não ser o titular, não poderá contratar um novo pacote;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>69</t>
@@ -3511,16 +3511,16 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva informa que não existem pacotes disponiveis no momento;
-A URA Cognitiva transfere para o desambiguador.</t>
+7 - A URA Cognitiva informa que não existem pacotes disponiveis no momento;
+8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>134</t>
@@ -3537,16 +3537,16 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva informa que não existem pacotes disponiveis no momento;
-A URA Cognitiva agradece e encerra a ligação.</t>
+7 - A URA Cognitiva informa que não existem pacotes disponiveis no momento;
+8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>135</t>
@@ -3567,17 +3567,17 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa o pacote foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - URA informa o pacote foi contratado;
+9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>136</t>
@@ -3598,17 +3598,17 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa o pacote foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - URA informa o pacote foi contratado;
+9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>137</t>
@@ -3629,17 +3629,17 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa o pacote não foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - URA informa o pacote não foi contratado;
+9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>138</t>
@@ -3660,17 +3660,17 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa o pacote não foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - URA informa o pacote não foi contratado;
+9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>139</t>
@@ -3692,18 +3692,18 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA informa o pacote foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - URA informa que precisa da senha única;
+9 - URA informa o pacote foi contratado;
+10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>140</t>
@@ -3725,18 +3725,18 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA informa o pacote foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - URA informa que precisa da senha única;
+9 - URA informa o pacote foi contratado;
+10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>141</t>
@@ -3758,18 +3758,18 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA informa o pacote não foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - URA informa que precisa da senha única;
+9 - URA informa o pacote não foi contratado;
+10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>142</t>
@@ -3791,18 +3791,18 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA informa o pacote não foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - URA informa que precisa da senha única;
+9 - URA informa o pacote não foi contratado;
+10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>143</t>
@@ -3823,18 +3823,18 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
-A URA Cognitiva transfere para o desambiguador.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - URA informa que precisa da senha única;
+9 - URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
+10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>144</t>
@@ -3855,18 +3855,18 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
-A URA Cognitiva agradece e encerra a ligação.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - URA informa que precisa da senha única;
+9 - URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
+10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>145</t>
@@ -3887,17 +3887,17 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que não efetuou a contratação;
-A URA Cognitiva transfere para o desambiguador.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - A URA Cognitiva informa que não efetuou a contratação;
+9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>146</t>
@@ -3918,17 +3918,17 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que não efetuou a contratação;
-A URA Cognitiva agradece e encerra a ligação.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - A URA Cognitiva informa que não efetuou a contratação;
+9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>147</t>
@@ -3951,18 +3951,18 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa o pacote foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+9 - URA informa o pacote foi contratado;
+10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>148</t>
@@ -3985,18 +3985,18 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa o pacote foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+9 - URA informa o pacote foi contratado;
+10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>149</t>
@@ -4019,18 +4019,18 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa o pacote não foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+9 - URA informa o pacote não foi contratado;
+10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>150</t>
@@ -4053,18 +4053,18 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa o pacote não foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+9 - URA informa o pacote não foi contratado;
+10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>151</t>
@@ -4088,19 +4088,19 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA informa o pacote foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+9 - URA informa que precisa da senha única;
+10 - URA informa o pacote foi contratado;
+11 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>152</t>
@@ -4124,19 +4124,19 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA informa o pacote foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+9 - URA informa que precisa da senha única;
+10 - URA informa o pacote foi contratado;
+11 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>153</t>
@@ -4160,19 +4160,19 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA informa o pacote não foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+9 - URA informa que precisa da senha única;
+10 - URA informa o pacote não foi contratado;
+11 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>154</t>
@@ -4196,19 +4196,19 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA informa o pacote não foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+9 - URA informa que precisa da senha única;
+10 - URA informa o pacote não foi contratado;
+11 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>155</t>
@@ -4231,19 +4231,19 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
-A URA Cognitiva transfere para o desambiguador.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+9 - URA informa que precisa da senha única;
+10 - URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
+11 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>156</t>
@@ -4266,19 +4266,19 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
-A URA Cognitiva agradece e encerra a ligação.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+9 - URA informa que precisa da senha única;
+10 - URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
+11 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>157</t>
@@ -4301,18 +4301,18 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-A URA Cognitiva informa que não efetuou a contratação;
-A URA Cognitiva transfere para o desambiguador.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+9 - A URA Cognitiva informa que não efetuou a contratação;
+10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>158</t>
@@ -4335,18 +4335,18 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-A URA Cognitiva informa que não efetuou a contratação;
-A URA Cognitiva agradece e encerra a ligação.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+9 - A URA Cognitiva informa que não efetuou a contratação;
+10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>159</t>
@@ -4366,17 +4366,17 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-A URA Cognitiva transfere para o desambiguador.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>160</t>
@@ -4396,17 +4396,17 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
+6 - A URA Cognitiva informa que está com velocidade reduzida porque já consumiu o pacote,
 mas pode contratar um pacote adicional e verifica se existem pacotes disponiveis;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-A URA Cognitiva agradece e encerra a ligação.</t>
+7 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+8 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>161</t>
@@ -4457,14 +4457,14 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que não existem pacotes disponiveis no momento;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva informa que não existem pacotes disponiveis no momento;
+7 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>164</t>
@@ -4481,14 +4481,14 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva informa que não existem pacotes disponiveis no momento;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva informa que não existem pacotes disponiveis no momento;
+7 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>165</t>
@@ -4509,15 +4509,15 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa o pacote foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - URA informa o pacote foi contratado;
+8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>166</t>
@@ -4538,15 +4538,15 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa o pacote foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - URA informa o pacote foi contratado;
+8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>167</t>
@@ -4567,15 +4567,15 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa o pacote não foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - URA informa o pacote não foi contratado;
+8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>168</t>
@@ -4596,15 +4596,15 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa o pacote não foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - URA informa o pacote não foi contratado;
+8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>169</t>
@@ -4626,16 +4626,16 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA informa o pacote foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - URA informa que precisa da senha única;
+8 - URA informa o pacote foi contratado;
+9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>170</t>
@@ -4657,16 +4657,16 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA informa o pacote foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - URA informa que precisa da senha única;
+8 - URA informa o pacote foi contratado;
+9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>171</t>
@@ -4688,16 +4688,16 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA informa o pacote não foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - URA informa que precisa da senha única;
+8 - URA informa o pacote não foi contratado;
+9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>172</t>
@@ -4719,16 +4719,16 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA informa o pacote não foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - URA informa que precisa da senha única;
+8 - URA informa o pacote não foi contratado;
+9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>173</t>
@@ -4749,16 +4749,16 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - URA informa que precisa da senha única;
+8 - URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
+9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>174</t>
@@ -4779,16 +4779,16 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-URA informa que precisa da senha única;
-URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - URA informa que precisa da senha única;
+8 - URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
+9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>175</t>
@@ -4809,15 +4809,15 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que não efetuou a contratação;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que não efetuou a contratação;
+8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>176</t>
@@ -4838,15 +4838,15 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que não efetuou a contratação;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que não efetuou a contratação;
+8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>177</t>
@@ -4869,16 +4869,16 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa o pacote foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - URA informa o pacote foi contratado;
+9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>178</t>
@@ -4901,16 +4901,16 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa o pacote foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - URA informa o pacote foi contratado;
+9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>179</t>
@@ -4933,16 +4933,16 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa o pacote não foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - URA informa o pacote não foi contratado;
+9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>180</t>
@@ -4965,16 +4965,16 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa o pacote não foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - URA informa o pacote não foi contratado;
+9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>181</t>
@@ -4998,17 +4998,17 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA informa o pacote foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - URA informa que precisa da senha única;
+9 - URA informa o pacote foi contratado;
+10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>182</t>
@@ -5032,17 +5032,17 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA informa o pacote foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - URA informa que precisa da senha única;
+9 - URA informa o pacote foi contratado;
+10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>183</t>
@@ -5066,17 +5066,17 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA informa o pacote não foi contratado;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - URA informa que precisa da senha única;
+9 - URA informa o pacote não foi contratado;
+10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>184</t>
@@ -5100,17 +5100,17 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA informa o pacote não foi contratado;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - URA informa que precisa da senha única;
+9 - URA informa o pacote não foi contratado;
+10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>185</t>
@@ -5133,17 +5133,17 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - URA informa que precisa da senha única;
+9 - URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
+10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>186</t>
@@ -5166,17 +5166,17 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-URA informa que precisa da senha única;
-URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - URA informa que precisa da senha única;
+9 - URA Informa que não foi possível confirmar os dados do cliente e não vai poder prosseguir;
+10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>187</t>
@@ -5199,16 +5199,16 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-A URA Cognitiva informa que não efetuou a contratação;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - A URA Cognitiva informa que não efetuou a contratação;
+9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>188</t>
@@ -5231,16 +5231,16 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-A URA Cognitiva informa que não efetuou a contratação;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - A URA Cognitiva informa que não efetuou a contratação;
+9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>189</t>
@@ -5260,15 +5260,15 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-A URA Cognitiva transfere para o desambiguador.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
     <t>190</t>
@@ -5288,15 +5288,15 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>Chamada é encaminhada para a URA Cognitiva;
-Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
-A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
-A URA Cognitiva pede para aguardar enquanto verifica a internet;
-A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
+    <t>1 - Chamada é encaminhada para a URA Cognitiva;
+2 - Ouvir a saudacão da URA Cognitiva conforme descrito na DF.
+3 - A URA Congnitiva informa que entendeu que deseja falar sobre Contratação de Pacotes;
+4 - A URA Cognitiva pede para aguardar enquanto verifica a internet;
+5 - A URA Cognitiva informa que já existe um pacote ativo e que só é possível contratar
 um novo depois de consumi-lo;
-A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
-A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
-A URA Cognitiva agradece e encerra a ligação.</t>
+6 - A URA Cognitiva lista e oferece os pacotes disponíveis ao cliente;
+7 - A URA Cognitiva informa que no momento estas são as únicas opções disponíveis;
+8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
     <t>191</t>
@@ -5407,13 +5407,13 @@
   <cellXfs count="5">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyBorder="1" borderId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>

--- a/maps/contratarPacoteDados/exportedScenarios/scenarios.xlsx
+++ b/maps/contratarPacoteDados/exportedScenarios/scenarios.xlsx
@@ -58,7 +58,7 @@
     <t>Status Reteste</t>
   </si>
   <si>
-    <t>1</t>
+    <t>02.001</t>
   </si>
   <si>
     <t>Contratação de Pacote de Dados</t>
@@ -85,7 +85,7 @@
 5 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>2</t>
+    <t>02.002</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -103,7 +103,7 @@
 5 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>3</t>
+    <t>02.003</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -122,7 +122,7 @@
 5 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>4</t>
+    <t>02.004</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -141,7 +141,7 @@
 5 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>5</t>
+    <t>02.005</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -164,7 +164,7 @@
 6 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>6</t>
+    <t>02.006</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -187,7 +187,7 @@
 6 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>7</t>
+    <t>02.007</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -214,7 +214,7 @@
 7 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>8</t>
+    <t>02.008</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -241,7 +241,7 @@
 7 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>9</t>
+    <t>02.009</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -273,7 +273,7 @@
 8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>10</t>
+    <t>02.010</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -305,7 +305,7 @@
 8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>11</t>
+    <t>02.011</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -337,7 +337,7 @@
 8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>12</t>
+    <t>02.012</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -369,7 +369,7 @@
 8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>13</t>
+    <t>02.013</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -403,7 +403,7 @@
 9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>14</t>
+    <t>02.014</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -437,7 +437,7 @@
 9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>15</t>
+    <t>02.015</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -471,7 +471,7 @@
 9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>16</t>
+    <t>02.016</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -505,7 +505,7 @@
 9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>17</t>
+    <t>02.017</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -538,7 +538,7 @@
 9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>18</t>
+    <t>02.018</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -571,7 +571,7 @@
 9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>19</t>
+    <t>02.019</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -603,7 +603,7 @@
 8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>20</t>
+    <t>02.020</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -635,7 +635,7 @@
 8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>21</t>
+    <t>02.021</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -670,7 +670,7 @@
 9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>22</t>
+    <t>02.022</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -705,7 +705,7 @@
 9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>23</t>
+    <t>02.023</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -740,7 +740,7 @@
 9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>24</t>
+    <t>02.024</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -775,7 +775,7 @@
 9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>25</t>
+    <t>02.025</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -812,7 +812,7 @@
 10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>26</t>
+    <t>02.026</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -849,7 +849,7 @@
 10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>27</t>
+    <t>02.027</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -886,7 +886,7 @@
 10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>28</t>
+    <t>02.028</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -923,7 +923,7 @@
 10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>29</t>
+    <t>02.029</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -959,7 +959,7 @@
 10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>30</t>
+    <t>02.030</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -995,7 +995,7 @@
 10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>31</t>
+    <t>02.031</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1030,7 +1030,7 @@
 9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>32</t>
+    <t>02.032</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1065,7 +1065,7 @@
 9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>33</t>
+    <t>02.033</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1096,7 +1096,7 @@
 8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>34</t>
+    <t>02.034</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1127,7 +1127,7 @@
 8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>35</t>
+    <t>02.035</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1147,7 +1147,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>36</t>
+    <t>02.036</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1167,7 +1167,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>37</t>
+    <t>02.037</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1192,7 +1192,7 @@
 6 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>38</t>
+    <t>02.038</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1217,7 +1217,7 @@
 6 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>39</t>
+    <t>02.039</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1247,7 +1247,7 @@
 7 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>40</t>
+    <t>02.040</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1277,7 +1277,7 @@
 7 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>41</t>
+    <t>02.041</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1307,7 +1307,7 @@
 7 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>42</t>
+    <t>02.042</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1337,7 +1337,7 @@
 7 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>43</t>
+    <t>02.043</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1369,7 +1369,7 @@
 8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>44</t>
+    <t>02.044</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1401,7 +1401,7 @@
 8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>45</t>
+    <t>02.045</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1433,7 +1433,7 @@
 8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>46</t>
+    <t>02.046</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1465,7 +1465,7 @@
 8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>47</t>
+    <t>02.047</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1496,7 +1496,7 @@
 8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>48</t>
+    <t>02.048</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1527,7 +1527,7 @@
 8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>49</t>
+    <t>02.049</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1557,7 +1557,7 @@
 7 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>50</t>
+    <t>02.050</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1587,7 +1587,7 @@
 7 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>51</t>
+    <t>02.051</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1620,7 +1620,7 @@
 8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>52</t>
+    <t>02.052</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1653,7 +1653,7 @@
 8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>53</t>
+    <t>02.053</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1686,7 +1686,7 @@
 8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>54</t>
+    <t>02.054</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1719,7 +1719,7 @@
 8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>55</t>
+    <t>02.055</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1754,7 +1754,7 @@
 9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>56</t>
+    <t>02.056</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1789,7 +1789,7 @@
 9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>57</t>
+    <t>02.057</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1824,7 +1824,7 @@
 9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>58</t>
+    <t>02.058</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1859,7 +1859,7 @@
 9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>59</t>
+    <t>02.059</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1893,7 +1893,7 @@
 9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>60</t>
+    <t>02.060</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1927,7 +1927,7 @@
 9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>61</t>
+    <t>02.061</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1960,7 +1960,7 @@
 8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>62</t>
+    <t>02.062</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -1993,7 +1993,7 @@
 8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>63</t>
+    <t>02.063</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2022,7 +2022,7 @@
 7 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>64</t>
+    <t>02.064</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2051,7 +2051,7 @@
 7 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>65</t>
+    <t>02.065</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2071,7 +2071,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>66</t>
+    <t>02.066</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2091,7 +2091,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>67</t>
+    <t>02.067</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2115,7 +2115,7 @@
 6 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>68</t>
+    <t>02.068</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2139,7 +2139,7 @@
 6 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>69</t>
+    <t>02.069</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2153,7 +2153,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>70</t>
+    <t>02.070</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2167,7 +2167,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>71</t>
+    <t>02.071</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2184,7 +2184,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>72</t>
+    <t>02.072</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2201,7 +2201,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>73</t>
+    <t>02.073</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2222,7 +2222,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>74</t>
+    <t>02.074</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2243,7 +2243,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>75</t>
+    <t>02.075</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2264,7 +2264,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>76</t>
+    <t>02.076</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2285,7 +2285,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>77</t>
+    <t>02.077</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2307,7 +2307,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>78</t>
+    <t>02.078</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2329,7 +2329,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>79</t>
+    <t>02.079</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2351,7 +2351,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>80</t>
+    <t>02.080</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2373,7 +2373,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>81</t>
+    <t>02.081</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2394,7 +2394,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>82</t>
+    <t>02.082</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2415,7 +2415,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>83</t>
+    <t>02.083</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2436,7 +2436,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>84</t>
+    <t>02.084</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2457,7 +2457,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>85</t>
+    <t>02.085</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2480,7 +2480,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>86</t>
+    <t>02.086</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2503,7 +2503,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>87</t>
+    <t>02.087</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2526,7 +2526,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>88</t>
+    <t>02.088</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2549,7 +2549,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>89</t>
+    <t>02.089</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2573,7 +2573,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>90</t>
+    <t>02.090</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2597,7 +2597,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>91</t>
+    <t>02.091</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2621,7 +2621,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>92</t>
+    <t>02.092</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2645,7 +2645,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>93</t>
+    <t>02.093</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2668,7 +2668,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>94</t>
+    <t>02.094</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2691,7 +2691,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>95</t>
+    <t>02.095</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2714,7 +2714,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>96</t>
+    <t>02.096</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2737,7 +2737,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>97</t>
+    <t>02.097</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2757,7 +2757,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>98</t>
+    <t>02.098</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2777,7 +2777,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>99</t>
+    <t>02.099</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2797,7 +2797,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>100</t>
+    <t>02.100</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2817,7 +2817,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>101</t>
+    <t>02.101</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2834,7 +2834,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>102</t>
+    <t>02.102</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2851,7 +2851,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>103</t>
+    <t>02.103</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2872,7 +2872,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>104</t>
+    <t>02.104</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2893,7 +2893,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>105</t>
+    <t>02.105</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2914,7 +2914,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>106</t>
+    <t>02.106</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2935,7 +2935,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>107</t>
+    <t>02.107</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2957,7 +2957,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>108</t>
+    <t>02.108</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -2979,7 +2979,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>109</t>
+    <t>02.109</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3001,7 +3001,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>110</t>
+    <t>02.110</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3023,7 +3023,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>111</t>
+    <t>02.111</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3044,7 +3044,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>112</t>
+    <t>02.112</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3065,7 +3065,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>113</t>
+    <t>02.113</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3086,7 +3086,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>114</t>
+    <t>02.114</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3107,7 +3107,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>115</t>
+    <t>02.115</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3130,7 +3130,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>116</t>
+    <t>02.116</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3153,7 +3153,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>117</t>
+    <t>02.117</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3176,7 +3176,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>118</t>
+    <t>02.118</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3199,7 +3199,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>119</t>
+    <t>02.119</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3223,7 +3223,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>120</t>
+    <t>02.120</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3247,7 +3247,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>121</t>
+    <t>02.121</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3271,7 +3271,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>122</t>
+    <t>02.122</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3295,7 +3295,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>123</t>
+    <t>02.123</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3318,7 +3318,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>124</t>
+    <t>02.124</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3341,7 +3341,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>125</t>
+    <t>02.125</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3364,7 +3364,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>126</t>
+    <t>02.126</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3387,7 +3387,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>127</t>
+    <t>02.127</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3407,7 +3407,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>128</t>
+    <t>02.128</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3427,7 +3427,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>129</t>
+    <t>02.129</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3447,7 +3447,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>130</t>
+    <t>02.130</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3467,7 +3467,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>131</t>
+    <t>02.131</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3482,7 +3482,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>132</t>
+    <t>02.132</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3497,7 +3497,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>133</t>
+    <t>02.133</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3523,7 +3523,7 @@
 8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>134</t>
+    <t>02.134</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3549,7 +3549,7 @@
 8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>135</t>
+    <t>02.135</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3580,7 +3580,7 @@
 9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>136</t>
+    <t>02.136</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3611,7 +3611,7 @@
 9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>137</t>
+    <t>02.137</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3642,7 +3642,7 @@
 9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>138</t>
+    <t>02.138</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3673,7 +3673,7 @@
 9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>139</t>
+    <t>02.139</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3706,7 +3706,7 @@
 10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>140</t>
+    <t>02.140</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3739,7 +3739,7 @@
 10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>141</t>
+    <t>02.141</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3772,7 +3772,7 @@
 10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>142</t>
+    <t>02.142</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3805,7 +3805,7 @@
 10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>143</t>
+    <t>02.143</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3837,7 +3837,7 @@
 10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>144</t>
+    <t>02.144</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3869,7 +3869,7 @@
 10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>145</t>
+    <t>02.145</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3900,7 +3900,7 @@
 9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>146</t>
+    <t>02.146</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3931,7 +3931,7 @@
 9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>147</t>
+    <t>02.147</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3965,7 +3965,7 @@
 10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>148</t>
+    <t>02.148</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -3999,7 +3999,7 @@
 10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>149</t>
+    <t>02.149</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4033,7 +4033,7 @@
 10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>150</t>
+    <t>02.150</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4067,7 +4067,7 @@
 10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>151</t>
+    <t>02.151</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4103,7 +4103,7 @@
 11 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>152</t>
+    <t>02.152</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4139,7 +4139,7 @@
 11 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>153</t>
+    <t>02.153</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4175,7 +4175,7 @@
 11 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>154</t>
+    <t>02.154</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4211,7 +4211,7 @@
 11 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>155</t>
+    <t>02.155</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4246,7 +4246,7 @@
 11 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>156</t>
+    <t>02.156</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4281,7 +4281,7 @@
 11 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>157</t>
+    <t>02.157</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4315,7 +4315,7 @@
 10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>158</t>
+    <t>02.158</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4349,7 +4349,7 @@
 10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>159</t>
+    <t>02.159</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4379,7 +4379,7 @@
 9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>160</t>
+    <t>02.160</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4409,7 +4409,7 @@
 9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>161</t>
+    <t>02.161</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4426,7 +4426,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>162</t>
+    <t>02.162</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4443,7 +4443,7 @@
 Não quer mais nada.</t>
   </si>
   <si>
-    <t>163</t>
+    <t>02.163</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4467,7 +4467,7 @@
 7 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>164</t>
+    <t>02.164</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4491,7 +4491,7 @@
 7 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>165</t>
+    <t>02.165</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4520,7 +4520,7 @@
 8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>166</t>
+    <t>02.166</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4549,7 +4549,7 @@
 8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>167</t>
+    <t>02.167</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4578,7 +4578,7 @@
 8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>168</t>
+    <t>02.168</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4607,7 +4607,7 @@
 8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>169</t>
+    <t>02.169</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4638,7 +4638,7 @@
 9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>170</t>
+    <t>02.170</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4669,7 +4669,7 @@
 9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>171</t>
+    <t>02.171</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4700,7 +4700,7 @@
 9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>172</t>
+    <t>02.172</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4731,7 +4731,7 @@
 9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>173</t>
+    <t>02.173</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4761,7 +4761,7 @@
 9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>174</t>
+    <t>02.174</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4791,7 +4791,7 @@
 9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>175</t>
+    <t>02.175</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4820,7 +4820,7 @@
 8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>176</t>
+    <t>02.176</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4849,7 +4849,7 @@
 8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>177</t>
+    <t>02.177</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4881,7 +4881,7 @@
 9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>178</t>
+    <t>02.178</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4913,7 +4913,7 @@
 9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>179</t>
+    <t>02.179</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4945,7 +4945,7 @@
 9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>180</t>
+    <t>02.180</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -4977,7 +4977,7 @@
 9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>181</t>
+    <t>02.181</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -5011,7 +5011,7 @@
 10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>182</t>
+    <t>02.182</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -5045,7 +5045,7 @@
 10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>183</t>
+    <t>02.183</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -5079,7 +5079,7 @@
 10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>184</t>
+    <t>02.184</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -5113,7 +5113,7 @@
 10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>185</t>
+    <t>02.185</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -5146,7 +5146,7 @@
 10 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>186</t>
+    <t>02.186</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -5179,7 +5179,7 @@
 10 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>187</t>
+    <t>02.187</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -5211,7 +5211,7 @@
 9 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>188</t>
+    <t>02.188</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -5243,7 +5243,7 @@
 9 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>189</t>
+    <t>02.189</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -5271,7 +5271,7 @@
 8 - A URA Cognitiva transfere para o desambiguador.</t>
   </si>
   <si>
-    <t>190</t>
+    <t>02.190</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -5299,7 +5299,7 @@
 8 - A URA Cognitiva agradece e encerra a ligação.</t>
   </si>
   <si>
-    <t>191</t>
+    <t>02.191</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
@@ -5316,7 +5316,7 @@
 Quer algo mais.</t>
   </si>
   <si>
-    <t>192</t>
+    <t>02.192</t>
   </si>
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados

--- a/maps/contratarPacoteDados/exportedScenarios/scenarios.xlsx
+++ b/maps/contratarPacoteDados/exportedScenarios/scenarios.xlsx
@@ -72,9 +72,8 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Sim
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Segunda contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -90,9 +89,8 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Sim
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Segunda contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -108,10 +106,9 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Sim
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Está em BTO
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -127,10 +124,9 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Sim
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Está em BTO
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -146,13 +142,12 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Sim
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente inadimplente
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -169,13 +164,12 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Sim
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente inadimplente
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -192,16 +186,15 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Sim
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacote vazio
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -219,16 +212,15 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Sim
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacote vazio
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -246,20 +238,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -278,20 +269,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -310,20 +300,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -342,20 +331,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -374,21 +362,20 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -408,21 +395,20 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -442,21 +428,20 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -476,21 +461,20 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -510,20 +494,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -543,20 +526,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -576,20 +558,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -608,20 +589,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -640,22 +620,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -675,22 +654,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -710,22 +688,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -745,22 +722,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -780,23 +756,22 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -817,23 +792,22 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -854,23 +828,22 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -891,23 +864,22 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -928,22 +900,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -964,22 +935,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1000,22 +970,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1035,22 +1004,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1070,19 +1038,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1101,19 +1068,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1132,19 +1098,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>02.036</t>
@@ -1152,19 +1117,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.037</t>
@@ -1172,16 +1136,15 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Sim
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacote vazio
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1197,16 +1160,15 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Sim
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacote vazio
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1222,20 +1184,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1252,20 +1213,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1282,20 +1242,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1312,20 +1271,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1342,21 +1300,20 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1374,21 +1331,20 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1406,21 +1362,20 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1438,21 +1393,20 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1470,20 +1424,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1501,20 +1454,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1532,20 +1484,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1562,20 +1513,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1592,22 +1542,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1625,22 +1574,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1658,22 +1606,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1691,22 +1638,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1724,23 +1670,22 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1759,23 +1704,22 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1794,23 +1738,22 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1829,23 +1772,22 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1864,22 +1806,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1898,22 +1839,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1932,22 +1872,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1965,22 +1904,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -1998,19 +1936,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -2027,19 +1964,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -2056,19 +1992,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>02.066</t>
@@ -2076,19 +2011,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.067</t>
@@ -2096,14 +2030,13 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+Não é titular
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -2120,14 +2053,13 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Sucesso
-Cliente Inadimplente? - Não
-Cliente Titular? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Sucesso no billing
+Cliente sem débitos
+Não é titular
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -2144,13 +2076,12 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Sim
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente inadimplente
+Quer algo mais</t>
   </si>
   <si>
     <t>02.070</t>
@@ -2158,13 +2089,12 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Sim
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente inadimplente
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.071</t>
@@ -2172,16 +2102,15 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Sim
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacote vazio
+Quer algo mais</t>
   </si>
   <si>
     <t>02.072</t>
@@ -2189,16 +2118,15 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Sim
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacote vazio
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.073</t>
@@ -2206,20 +2134,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>02.074</t>
@@ -2227,20 +2154,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.075</t>
@@ -2248,20 +2174,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>02.076</t>
@@ -2269,20 +2194,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.077</t>
@@ -2290,21 +2214,20 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>02.078</t>
@@ -2312,21 +2235,20 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.079</t>
@@ -2334,21 +2256,20 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>02.080</t>
@@ -2356,21 +2277,20 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.081</t>
@@ -2378,20 +2298,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Quer algo mais</t>
   </si>
   <si>
     <t>02.082</t>
@@ -2399,20 +2318,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.083</t>
@@ -2420,20 +2338,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>02.084</t>
@@ -2441,20 +2358,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.085</t>
@@ -2462,22 +2378,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>02.086</t>
@@ -2485,22 +2400,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.087</t>
@@ -2508,22 +2422,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>02.088</t>
@@ -2531,22 +2444,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.089</t>
@@ -2554,23 +2466,22 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>02.090</t>
@@ -2578,23 +2489,22 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.091</t>
@@ -2602,23 +2512,22 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>02.092</t>
@@ -2626,23 +2535,22 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.093</t>
@@ -2650,22 +2558,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Quer algo mais</t>
   </si>
   <si>
     <t>02.094</t>
@@ -2673,22 +2580,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.095</t>
@@ -2696,22 +2602,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>02.096</t>
@@ -2719,22 +2624,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.097</t>
@@ -2742,19 +2646,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>02.098</t>
@@ -2762,19 +2665,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.099</t>
@@ -2782,19 +2684,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>02.100</t>
@@ -2802,19 +2703,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.101</t>
@@ -2822,16 +2722,15 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Sim
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacote vazio
+Quer algo mais</t>
   </si>
   <si>
     <t>02.102</t>
@@ -2839,16 +2738,15 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Sim
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacote vazio
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.103</t>
@@ -2856,20 +2754,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>02.104</t>
@@ -2877,20 +2774,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.105</t>
@@ -2898,20 +2794,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>02.106</t>
@@ -2919,20 +2814,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.107</t>
@@ -2940,21 +2834,20 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>02.108</t>
@@ -2962,21 +2855,20 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.109</t>
@@ -2984,21 +2876,20 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>02.110</t>
@@ -3006,21 +2897,20 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.111</t>
@@ -3028,20 +2918,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Quer algo mais</t>
   </si>
   <si>
     <t>02.112</t>
@@ -3049,20 +2938,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.113</t>
@@ -3070,20 +2958,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>02.114</t>
@@ -3091,20 +2978,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.115</t>
@@ -3112,22 +2998,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>02.116</t>
@@ -3135,22 +3020,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.117</t>
@@ -3158,22 +3042,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>02.118</t>
@@ -3181,22 +3064,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.119</t>
@@ -3204,23 +3086,22 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>02.120</t>
@@ -3228,23 +3109,22 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.121</t>
@@ -3252,23 +3132,22 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>02.122</t>
@@ -3276,23 +3155,22 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.123</t>
@@ -3300,22 +3178,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Quer algo mais</t>
   </si>
   <si>
     <t>02.124</t>
@@ -3323,22 +3200,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.125</t>
@@ -3346,22 +3222,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>02.126</t>
@@ -3369,22 +3244,21 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.127</t>
@@ -3392,19 +3266,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>02.128</t>
@@ -3412,19 +3285,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.129</t>
@@ -3432,19 +3304,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>02.130</t>
@@ -3452,19 +3323,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Sim
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+É titular
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.131</t>
@@ -3472,14 +3342,13 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+Não é titular
+Quer algo mais</t>
   </si>
   <si>
     <t>02.132</t>
@@ -3487,14 +3356,13 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Sim
-Billing Profile? - Falha
-Cliente Inadimplente? - Não
-Cliente Titular? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação reduzida
+Erro no billing
+Cliente sem débitos
+Não é titular
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.133</t>
@@ -3502,13 +3370,12 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Sim
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacote vazio
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -3528,13 +3395,12 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Sim
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacote vazio
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -3554,17 +3420,16 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -3585,17 +3450,16 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -3616,17 +3480,16 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -3647,17 +3510,16 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -3678,18 +3540,17 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -3711,18 +3572,17 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -3744,18 +3604,17 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -3777,18 +3636,17 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -3810,17 +3668,16 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -3842,17 +3699,16 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -3874,17 +3730,16 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -3905,17 +3760,16 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Pacote escolhido
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -3936,19 +3790,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -3970,19 +3823,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4004,19 +3856,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4038,19 +3889,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4072,20 +3922,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4108,20 +3957,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4144,20 +3992,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4180,20 +4027,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4216,19 +4062,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4251,19 +4096,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4286,19 +4130,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4320,19 +4163,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4354,16 +4196,15 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4384,16 +4225,15 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4414,16 +4254,15 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>02.162</t>
@@ -4431,16 +4270,15 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Sim
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Está com problema na internet
+Pacotes disponíveis
+Nenhum pacote escolhido
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>02.163</t>
@@ -4448,13 +4286,12 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Sim
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacote vazio
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4472,13 +4309,12 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Sim
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacote vazio
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4496,17 +4332,16 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4525,17 +4360,16 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4554,17 +4388,16 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4583,17 +4416,16 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4612,18 +4444,17 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4643,18 +4474,17 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4674,18 +4504,17 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4705,18 +4534,17 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4736,17 +4564,16 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4766,17 +4593,16 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4796,17 +4622,16 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4825,17 +4650,16 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Pacote escolhido
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4854,19 +4678,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4886,19 +4709,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4918,19 +4740,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4950,19 +4771,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Sim
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando do próprio aparelho
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -4982,20 +4802,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -5016,20 +4835,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Sucesso
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Sucesso na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -5050,20 +4868,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -5084,20 +4901,19 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Sucesso
-Contratação efetuada? - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Sucesso no fluxo de senha
+Falha na contratação
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -5118,19 +4934,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -5151,19 +4966,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Sim
-Ligando do próprio aparelho? - Não
-Fluxo de Senha - Falha
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Confirma contratação
+Ligando de outro aparelho
+Falha no fluxo de senha
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -5184,19 +4998,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -5216,19 +5029,18 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Sim
-Confirma contratação? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Pacote escolhido(após repetir)
+Não confirma contratação
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -5248,16 +5060,15 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -5276,16 +5087,15 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Sim
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Quer ouvir opções de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
   <si>
     <t>1 - Chamada é encaminhada para a URA Cognitiva;
@@ -5304,16 +5114,15 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Sim
-Quer algo mais.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Quer algo mais</t>
   </si>
   <si>
     <t>02.192</t>
@@ -5321,16 +5130,15 @@
   <si>
     <t>Veio de #desambiguadorContrataçãoPacoteDados
 ou #desambiguadorProblemaInternet
-Segunda Contratação - Não
-Possui bloqueio Financeiro? - Não
-Está com navegação reduzida? - Não
-Relatou problema na internet? - Não
-Pacote Vazio? - Não
-Algum pacote escolhido? - Não
-Repetir? - Não
-Algum pacote escolhido(após repetir)? - Não
-Ajudo com algo mais? - Não
-Não quer mais nada.</t>
+Não é a segunda contratação
+Não é BTO
+Navegação normal
+Internet sem problemas
+Pacotes disponíveis
+Nenhum pacote escolhido
+Não quer ouvir de novo
+Nenhum pacote escolhido(após repetir)
+Não quer mais nada</t>
   </si>
 </sst>
 </file>
@@ -5486,7 +5294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72" customHeight="1">
+    <row r="2" spans="1:6" ht="54" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -5506,7 +5314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="72" customHeight="1">
+    <row r="3" spans="1:6" ht="54" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -5526,7 +5334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="90" customHeight="1">
+    <row r="4" spans="1:6" ht="72" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -5546,7 +5354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="90" customHeight="1">
+    <row r="5" spans="1:6" ht="72" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
@@ -5566,7 +5374,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="144" customHeight="1">
+    <row r="6" spans="1:6" ht="126" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -5586,7 +5394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="144" customHeight="1">
+    <row r="7" spans="1:6" ht="126" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
@@ -5606,7 +5414,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="198" customHeight="1">
+    <row r="8" spans="1:6" ht="180" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
@@ -5626,7 +5434,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="198" customHeight="1">
+    <row r="9" spans="1:6" ht="180" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -5646,7 +5454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="270" customHeight="1">
+    <row r="10" spans="1:6" ht="252" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -5666,7 +5474,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="270" customHeight="1">
+    <row r="11" spans="1:6" ht="252" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
@@ -5686,7 +5494,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="270" customHeight="1">
+    <row r="12" spans="1:6" ht="252" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
@@ -5706,7 +5514,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="270" customHeight="1">
+    <row r="13" spans="1:6" ht="252" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>51</v>
       </c>
@@ -5726,7 +5534,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="288" customHeight="1">
+    <row r="14" spans="1:6" ht="270" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>54</v>
       </c>
@@ -5746,7 +5554,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="288" customHeight="1">
+    <row r="15" spans="1:6" ht="270" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
@@ -5766,7 +5574,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="288" customHeight="1">
+    <row r="16" spans="1:6" ht="270" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>60</v>
       </c>
@@ -5786,7 +5594,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="288" customHeight="1">
+    <row r="17" spans="1:6" ht="270" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>63</v>
       </c>
@@ -5806,7 +5614,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="270" customHeight="1">
+    <row r="18" spans="1:6" ht="252" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>66</v>
       </c>
@@ -5826,7 +5634,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="270" customHeight="1">
+    <row r="19" spans="1:6" ht="252" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>69</v>
       </c>
@@ -5846,7 +5654,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="270" customHeight="1">
+    <row r="20" spans="1:6" ht="252" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>72</v>
       </c>
@@ -5866,7 +5674,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="270" customHeight="1">
+    <row r="21" spans="1:6" ht="252" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>75</v>
       </c>
@@ -5886,7 +5694,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="306" customHeight="1">
+    <row r="22" spans="1:6" ht="288" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>78</v>
       </c>
@@ -5906,7 +5714,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="306" customHeight="1">
+    <row r="23" spans="1:6" ht="288" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>81</v>
       </c>
@@ -5926,7 +5734,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="306" customHeight="1">
+    <row r="24" spans="1:6" ht="288" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>84</v>
       </c>
@@ -5946,7 +5754,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="306" customHeight="1">
+    <row r="25" spans="1:6" ht="288" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>87</v>
       </c>
@@ -5966,7 +5774,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="324" customHeight="1">
+    <row r="26" spans="1:6" ht="306" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>90</v>
       </c>
@@ -5986,7 +5794,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="324" customHeight="1">
+    <row r="27" spans="1:6" ht="306" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>93</v>
       </c>
@@ -6006,7 +5814,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="324" customHeight="1">
+    <row r="28" spans="1:6" ht="306" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>96</v>
       </c>
@@ -6026,7 +5834,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="324" customHeight="1">
+    <row r="29" spans="1:6" ht="306" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>99</v>
       </c>
@@ -6046,7 +5854,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="306" customHeight="1">
+    <row r="30" spans="1:6" ht="288" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>102</v>
       </c>
@@ -6066,7 +5874,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="306" customHeight="1">
+    <row r="31" spans="1:6" ht="288" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>105</v>
       </c>
@@ -6086,7 +5894,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="306" customHeight="1">
+    <row r="32" spans="1:6" ht="288" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>108</v>
       </c>
@@ -6106,7 +5914,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="306" customHeight="1">
+    <row r="33" spans="1:6" ht="288" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>111</v>
       </c>
@@ -6126,7 +5934,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="252" customHeight="1">
+    <row r="34" spans="1:6" ht="234" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>114</v>
       </c>
@@ -6146,7 +5954,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="252" customHeight="1">
+    <row r="35" spans="1:6" ht="234" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>117</v>
       </c>
@@ -6166,7 +5974,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="252" customHeight="1">
+    <row r="36" spans="1:6" ht="234" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>120</v>
       </c>
@@ -6186,7 +5994,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="252" customHeight="1">
+    <row r="37" spans="1:6" ht="234" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>122</v>
       </c>
@@ -6206,7 +6014,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="198" customHeight="1">
+    <row r="38" spans="1:6" ht="180" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>124</v>
       </c>
@@ -6226,7 +6034,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="198" customHeight="1">
+    <row r="39" spans="1:6" ht="180" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>127</v>
       </c>
@@ -6246,7 +6054,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="270" customHeight="1">
+    <row r="40" spans="1:6" ht="252" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>130</v>
       </c>
@@ -6266,7 +6074,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="270" customHeight="1">
+    <row r="41" spans="1:6" ht="252" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>133</v>
       </c>
@@ -6286,7 +6094,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="270" customHeight="1">
+    <row r="42" spans="1:6" ht="252" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>136</v>
       </c>
@@ -6306,7 +6114,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="270" customHeight="1">
+    <row r="43" spans="1:6" ht="252" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>139</v>
       </c>
@@ -6326,7 +6134,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="288" customHeight="1">
+    <row r="44" spans="1:6" ht="270" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>142</v>
       </c>
@@ -6346,7 +6154,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="288" customHeight="1">
+    <row r="45" spans="1:6" ht="270" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>145</v>
       </c>
@@ -6366,7 +6174,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="288" customHeight="1">
+    <row r="46" spans="1:6" ht="270" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>148</v>
       </c>
@@ -6386,7 +6194,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="288" customHeight="1">
+    <row r="47" spans="1:6" ht="270" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>151</v>
       </c>
@@ -6406,7 +6214,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="270" customHeight="1">
+    <row r="48" spans="1:6" ht="252" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>154</v>
       </c>
@@ -6426,7 +6234,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="270" customHeight="1">
+    <row r="49" spans="1:6" ht="252" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>157</v>
       </c>
@@ -6446,7 +6254,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="270" customHeight="1">
+    <row r="50" spans="1:6" ht="252" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>160</v>
       </c>
@@ -6466,7 +6274,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="270" customHeight="1">
+    <row r="51" spans="1:6" ht="252" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>163</v>
       </c>
@@ -6486,7 +6294,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="306" customHeight="1">
+    <row r="52" spans="1:6" ht="288" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>166</v>
       </c>
@@ -6506,7 +6314,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="306" customHeight="1">
+    <row r="53" spans="1:6" ht="288" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>169</v>
       </c>
@@ -6526,7 +6334,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="306" customHeight="1">
+    <row r="54" spans="1:6" ht="288" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>172</v>
       </c>
@@ -6546,7 +6354,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="306" customHeight="1">
+    <row r="55" spans="1:6" ht="288" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>175</v>
       </c>
@@ -6566,7 +6374,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="324" customHeight="1">
+    <row r="56" spans="1:6" ht="306" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>178</v>
       </c>
@@ -6586,7 +6394,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="324" customHeight="1">
+    <row r="57" spans="1:6" ht="306" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>181</v>
       </c>
@@ -6606,7 +6414,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="324" customHeight="1">
+    <row r="58" spans="1:6" ht="306" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>184</v>
       </c>
@@ -6626,7 +6434,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="324" customHeight="1">
+    <row r="59" spans="1:6" ht="306" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>187</v>
       </c>
@@ -6646,7 +6454,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="306" customHeight="1">
+    <row r="60" spans="1:6" ht="288" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>190</v>
       </c>
@@ -6666,7 +6474,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="306" customHeight="1">
+    <row r="61" spans="1:6" ht="288" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>193</v>
       </c>
@@ -6686,7 +6494,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="306" customHeight="1">
+    <row r="62" spans="1:6" ht="288" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>196</v>
       </c>
@@ -6706,7 +6514,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="306" customHeight="1">
+    <row r="63" spans="1:6" ht="288" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>199</v>
       </c>
@@ -6726,7 +6534,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="252" customHeight="1">
+    <row r="64" spans="1:6" ht="234" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>202</v>
       </c>
@@ -6746,7 +6554,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="252" customHeight="1">
+    <row r="65" spans="1:6" ht="234" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>205</v>
       </c>
@@ -6766,7 +6574,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="252" customHeight="1">
+    <row r="66" spans="1:6" ht="234" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>208</v>
       </c>
@@ -6786,7 +6594,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="252" customHeight="1">
+    <row r="67" spans="1:6" ht="234" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>210</v>
       </c>
@@ -6806,7 +6614,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="162" customHeight="1">
+    <row r="68" spans="1:6" ht="144" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>212</v>
       </c>
@@ -6826,7 +6634,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="162" customHeight="1">
+    <row r="69" spans="1:6" ht="144" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>215</v>
       </c>
@@ -6846,7 +6654,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="144" customHeight="1">
+    <row r="70" spans="1:6" ht="126" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>218</v>
       </c>
@@ -6866,7 +6674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="144" customHeight="1">
+    <row r="71" spans="1:6" ht="126" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>220</v>
       </c>
@@ -6886,7 +6694,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="198" customHeight="1">
+    <row r="72" spans="1:6" ht="180" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>222</v>
       </c>
@@ -6906,7 +6714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="198" customHeight="1">
+    <row r="73" spans="1:6" ht="180" customHeight="1">
       <c r="A73" s="4" t="s">
         <v>224</v>
       </c>
@@ -6926,7 +6734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="270" customHeight="1">
+    <row r="74" spans="1:6" ht="252" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>226</v>
       </c>
@@ -6946,7 +6754,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="270" customHeight="1">
+    <row r="75" spans="1:6" ht="252" customHeight="1">
       <c r="A75" s="4" t="s">
         <v>228</v>
       </c>
@@ -6966,7 +6774,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="270" customHeight="1">
+    <row r="76" spans="1:6" ht="252" customHeight="1">
       <c r="A76" s="4" t="s">
         <v>230</v>
       </c>
@@ -6986,7 +6794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="270" customHeight="1">
+    <row r="77" spans="1:6" ht="252" customHeight="1">
       <c r="A77" s="4" t="s">
         <v>232</v>
       </c>
@@ -7006,7 +6814,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="288" customHeight="1">
+    <row r="78" spans="1:6" ht="270" customHeight="1">
       <c r="A78" s="4" t="s">
         <v>234</v>
       </c>
@@ -7026,7 +6834,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="288" customHeight="1">
+    <row r="79" spans="1:6" ht="270" customHeight="1">
       <c r="A79" s="4" t="s">
         <v>236</v>
       </c>
@@ -7046,7 +6854,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="288" customHeight="1">
+    <row r="80" spans="1:6" ht="270" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>238</v>
       </c>
@@ -7066,7 +6874,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="288" customHeight="1">
+    <row r="81" spans="1:6" ht="270" customHeight="1">
       <c r="A81" s="4" t="s">
         <v>240</v>
       </c>
@@ -7086,7 +6894,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="270" customHeight="1">
+    <row r="82" spans="1:6" ht="252" customHeight="1">
       <c r="A82" s="4" t="s">
         <v>242</v>
       </c>
@@ -7106,7 +6914,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="270" customHeight="1">
+    <row r="83" spans="1:6" ht="252" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>244</v>
       </c>
@@ -7126,7 +6934,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="270" customHeight="1">
+    <row r="84" spans="1:6" ht="252" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>246</v>
       </c>
@@ -7146,7 +6954,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="270" customHeight="1">
+    <row r="85" spans="1:6" ht="252" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>248</v>
       </c>
@@ -7166,7 +6974,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="306" customHeight="1">
+    <row r="86" spans="1:6" ht="288" customHeight="1">
       <c r="A86" s="4" t="s">
         <v>250</v>
       </c>
@@ -7186,7 +6994,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="306" customHeight="1">
+    <row r="87" spans="1:6" ht="288" customHeight="1">
       <c r="A87" s="4" t="s">
         <v>252</v>
       </c>
@@ -7206,7 +7014,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="306" customHeight="1">
+    <row r="88" spans="1:6" ht="288" customHeight="1">
       <c r="A88" s="4" t="s">
         <v>254</v>
       </c>
@@ -7226,7 +7034,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="306" customHeight="1">
+    <row r="89" spans="1:6" ht="288" customHeight="1">
       <c r="A89" s="4" t="s">
         <v>256</v>
       </c>
@@ -7246,7 +7054,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="324" customHeight="1">
+    <row r="90" spans="1:6" ht="306" customHeight="1">
       <c r="A90" s="4" t="s">
         <v>258</v>
       </c>
@@ -7266,7 +7074,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="324" customHeight="1">
+    <row r="91" spans="1:6" ht="306" customHeight="1">
       <c r="A91" s="4" t="s">
         <v>260</v>
       </c>
@@ -7286,7 +7094,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="324" customHeight="1">
+    <row r="92" spans="1:6" ht="306" customHeight="1">
       <c r="A92" s="4" t="s">
         <v>262</v>
       </c>
@@ -7306,7 +7114,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="324" customHeight="1">
+    <row r="93" spans="1:6" ht="306" customHeight="1">
       <c r="A93" s="4" t="s">
         <v>264</v>
       </c>
@@ -7326,7 +7134,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="306" customHeight="1">
+    <row r="94" spans="1:6" ht="288" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>266</v>
       </c>
@@ -7346,7 +7154,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="306" customHeight="1">
+    <row r="95" spans="1:6" ht="288" customHeight="1">
       <c r="A95" s="4" t="s">
         <v>268</v>
       </c>
@@ -7366,7 +7174,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="306" customHeight="1">
+    <row r="96" spans="1:6" ht="288" customHeight="1">
       <c r="A96" s="4" t="s">
         <v>270</v>
       </c>
@@ -7386,7 +7194,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="306" customHeight="1">
+    <row r="97" spans="1:6" ht="288" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>272</v>
       </c>
@@ -7406,7 +7214,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="252" customHeight="1">
+    <row r="98" spans="1:6" ht="234" customHeight="1">
       <c r="A98" s="4" t="s">
         <v>274</v>
       </c>
@@ -7426,7 +7234,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="252" customHeight="1">
+    <row r="99" spans="1:6" ht="234" customHeight="1">
       <c r="A99" s="4" t="s">
         <v>276</v>
       </c>
@@ -7446,7 +7254,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="252" customHeight="1">
+    <row r="100" spans="1:6" ht="234" customHeight="1">
       <c r="A100" s="4" t="s">
         <v>278</v>
       </c>
@@ -7466,7 +7274,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="252" customHeight="1">
+    <row r="101" spans="1:6" ht="234" customHeight="1">
       <c r="A101" s="4" t="s">
         <v>280</v>
       </c>
@@ -7486,7 +7294,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="198" customHeight="1">
+    <row r="102" spans="1:6" ht="180" customHeight="1">
       <c r="A102" s="4" t="s">
         <v>282</v>
       </c>
@@ -7506,7 +7314,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="198" customHeight="1">
+    <row r="103" spans="1:6" ht="180" customHeight="1">
       <c r="A103" s="4" t="s">
         <v>284</v>
       </c>
@@ -7526,7 +7334,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="270" customHeight="1">
+    <row r="104" spans="1:6" ht="252" customHeight="1">
       <c r="A104" s="4" t="s">
         <v>286</v>
       </c>
@@ -7546,7 +7354,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="270" customHeight="1">
+    <row r="105" spans="1:6" ht="252" customHeight="1">
       <c r="A105" s="4" t="s">
         <v>288</v>
       </c>
@@ -7566,7 +7374,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="270" customHeight="1">
+    <row r="106" spans="1:6" ht="252" customHeight="1">
       <c r="A106" s="4" t="s">
         <v>290</v>
       </c>
@@ -7586,7 +7394,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="270" customHeight="1">
+    <row r="107" spans="1:6" ht="252" customHeight="1">
       <c r="A107" s="4" t="s">
         <v>292</v>
       </c>
@@ -7606,7 +7414,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="288" customHeight="1">
+    <row r="108" spans="1:6" ht="270" customHeight="1">
       <c r="A108" s="4" t="s">
         <v>294</v>
       </c>
@@ -7626,7 +7434,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="288" customHeight="1">
+    <row r="109" spans="1:6" ht="270" customHeight="1">
       <c r="A109" s="4" t="s">
         <v>296</v>
       </c>
@@ -7646,7 +7454,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="288" customHeight="1">
+    <row r="110" spans="1:6" ht="270" customHeight="1">
       <c r="A110" s="4" t="s">
         <v>298</v>
       </c>
@@ -7666,7 +7474,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="288" customHeight="1">
+    <row r="111" spans="1:6" ht="270" customHeight="1">
       <c r="A111" s="4" t="s">
         <v>300</v>
       </c>
@@ -7686,7 +7494,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="270" customHeight="1">
+    <row r="112" spans="1:6" ht="252" customHeight="1">
       <c r="A112" s="4" t="s">
         <v>302</v>
       </c>
@@ -7706,7 +7514,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="270" customHeight="1">
+    <row r="113" spans="1:6" ht="252" customHeight="1">
       <c r="A113" s="4" t="s">
         <v>304</v>
       </c>
@@ -7726,7 +7534,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="270" customHeight="1">
+    <row r="114" spans="1:6" ht="252" customHeight="1">
       <c r="A114" s="4" t="s">
         <v>306</v>
       </c>
@@ -7746,7 +7554,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="270" customHeight="1">
+    <row r="115" spans="1:6" ht="252" customHeight="1">
       <c r="A115" s="4" t="s">
         <v>308</v>
       </c>
@@ -7766,7 +7574,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="306" customHeight="1">
+    <row r="116" spans="1:6" ht="288" customHeight="1">
       <c r="A116" s="4" t="s">
         <v>310</v>
       </c>
@@ -7786,7 +7594,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="306" customHeight="1">
+    <row r="117" spans="1:6" ht="288" customHeight="1">
       <c r="A117" s="4" t="s">
         <v>312</v>
       </c>
@@ -7806,7 +7614,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="306" customHeight="1">
+    <row r="118" spans="1:6" ht="288" customHeight="1">
       <c r="A118" s="4" t="s">
         <v>314</v>
       </c>
@@ -7826,7 +7634,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="306" customHeight="1">
+    <row r="119" spans="1:6" ht="288" customHeight="1">
       <c r="A119" s="4" t="s">
         <v>316</v>
       </c>
@@ -7846,7 +7654,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="324" customHeight="1">
+    <row r="120" spans="1:6" ht="306" customHeight="1">
       <c r="A120" s="4" t="s">
         <v>318</v>
       </c>
@@ -7866,7 +7674,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="324" customHeight="1">
+    <row r="121" spans="1:6" ht="306" customHeight="1">
       <c r="A121" s="4" t="s">
         <v>320</v>
       </c>
@@ -7886,7 +7694,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="324" customHeight="1">
+    <row r="122" spans="1:6" ht="306" customHeight="1">
       <c r="A122" s="4" t="s">
         <v>322</v>
       </c>
@@ -7906,7 +7714,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="324" customHeight="1">
+    <row r="123" spans="1:6" ht="306" customHeight="1">
       <c r="A123" s="4" t="s">
         <v>324</v>
       </c>
@@ -7926,7 +7734,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="306" customHeight="1">
+    <row r="124" spans="1:6" ht="288" customHeight="1">
       <c r="A124" s="4" t="s">
         <v>326</v>
       </c>
@@ -7946,7 +7754,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="306" customHeight="1">
+    <row r="125" spans="1:6" ht="288" customHeight="1">
       <c r="A125" s="4" t="s">
         <v>328</v>
       </c>
@@ -7966,7 +7774,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="306" customHeight="1">
+    <row r="126" spans="1:6" ht="288" customHeight="1">
       <c r="A126" s="4" t="s">
         <v>330</v>
       </c>
@@ -7986,7 +7794,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="306" customHeight="1">
+    <row r="127" spans="1:6" ht="288" customHeight="1">
       <c r="A127" s="4" t="s">
         <v>332</v>
       </c>
@@ -8006,7 +7814,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="252" customHeight="1">
+    <row r="128" spans="1:6" ht="234" customHeight="1">
       <c r="A128" s="4" t="s">
         <v>334</v>
       </c>
@@ -8026,7 +7834,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="252" customHeight="1">
+    <row r="129" spans="1:6" ht="234" customHeight="1">
       <c r="A129" s="4" t="s">
         <v>336</v>
       </c>
@@ -8046,7 +7854,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="252" customHeight="1">
+    <row r="130" spans="1:6" ht="234" customHeight="1">
       <c r="A130" s="4" t="s">
         <v>338</v>
       </c>
@@ -8066,7 +7874,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="252" customHeight="1">
+    <row r="131" spans="1:6" ht="234" customHeight="1">
       <c r="A131" s="4" t="s">
         <v>340</v>
       </c>
@@ -8086,7 +7894,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="162" customHeight="1">
+    <row r="132" spans="1:6" ht="144" customHeight="1">
       <c r="A132" s="4" t="s">
         <v>342</v>
       </c>
@@ -8106,7 +7914,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="162" customHeight="1">
+    <row r="133" spans="1:6" ht="144" customHeight="1">
       <c r="A133" s="4" t="s">
         <v>344</v>
       </c>
@@ -8126,7 +7934,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="144" customHeight="1">
+    <row r="134" spans="1:6" ht="126" customHeight="1">
       <c r="A134" s="4" t="s">
         <v>346</v>
       </c>
@@ -8146,7 +7954,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="144" customHeight="1">
+    <row r="135" spans="1:6" ht="126" customHeight="1">
       <c r="A135" s="4" t="s">
         <v>349</v>
       </c>
@@ -8166,7 +7974,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="216" customHeight="1">
+    <row r="136" spans="1:6" ht="198" customHeight="1">
       <c r="A136" s="4" t="s">
         <v>352</v>
       </c>
@@ -8186,7 +7994,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="216" customHeight="1">
+    <row r="137" spans="1:6" ht="198" customHeight="1">
       <c r="A137" s="4" t="s">
         <v>355</v>
       </c>
@@ -8206,7 +8014,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="216" customHeight="1">
+    <row r="138" spans="1:6" ht="198" customHeight="1">
       <c r="A138" s="4" t="s">
         <v>358</v>
       </c>
@@ -8226,7 +8034,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="216" customHeight="1">
+    <row r="139" spans="1:6" ht="198" customHeight="1">
       <c r="A139" s="4" t="s">
         <v>361</v>
       </c>
@@ -8246,7 +8054,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="234" customHeight="1">
+    <row r="140" spans="1:6" ht="216" customHeight="1">
       <c r="A140" s="4" t="s">
         <v>364</v>
       </c>
@@ -8266,7 +8074,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="234" customHeight="1">
+    <row r="141" spans="1:6" ht="216" customHeight="1">
       <c r="A141" s="4" t="s">
         <v>367</v>
       </c>
@@ -8286,7 +8094,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="234" customHeight="1">
+    <row r="142" spans="1:6" ht="216" customHeight="1">
       <c r="A142" s="4" t="s">
         <v>370</v>
       </c>
@@ -8306,7 +8114,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="234" customHeight="1">
+    <row r="143" spans="1:6" ht="216" customHeight="1">
       <c r="A143" s="4" t="s">
         <v>373</v>
       </c>
@@ -8326,7 +8134,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="216" customHeight="1">
+    <row r="144" spans="1:6" ht="198" customHeight="1">
       <c r="A144" s="4" t="s">
         <v>376</v>
       </c>
@@ -8346,7 +8154,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="216" customHeight="1">
+    <row r="145" spans="1:6" ht="198" customHeight="1">
       <c r="A145" s="4" t="s">
         <v>379</v>
       </c>
@@ -8366,7 +8174,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="216" customHeight="1">
+    <row r="146" spans="1:6" ht="198" customHeight="1">
       <c r="A146" s="4" t="s">
         <v>382</v>
       </c>
@@ -8386,7 +8194,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="216" customHeight="1">
+    <row r="147" spans="1:6" ht="198" customHeight="1">
       <c r="A147" s="4" t="s">
         <v>385</v>
       </c>
@@ -8406,7 +8214,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="252" customHeight="1">
+    <row r="148" spans="1:6" ht="234" customHeight="1">
       <c r="A148" s="4" t="s">
         <v>388</v>
       </c>
@@ -8426,7 +8234,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="252" customHeight="1">
+    <row r="149" spans="1:6" ht="234" customHeight="1">
       <c r="A149" s="4" t="s">
         <v>391</v>
       </c>
@@ -8446,7 +8254,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="252" customHeight="1">
+    <row r="150" spans="1:6" ht="234" customHeight="1">
       <c r="A150" s="4" t="s">
         <v>394</v>
       </c>
@@ -8466,7 +8274,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="252" customHeight="1">
+    <row r="151" spans="1:6" ht="234" customHeight="1">
       <c r="A151" s="4" t="s">
         <v>397</v>
       </c>
@@ -8486,7 +8294,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="270" customHeight="1">
+    <row r="152" spans="1:6" ht="252" customHeight="1">
       <c r="A152" s="4" t="s">
         <v>400</v>
       </c>
@@ -8506,7 +8314,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="270" customHeight="1">
+    <row r="153" spans="1:6" ht="252" customHeight="1">
       <c r="A153" s="4" t="s">
         <v>403</v>
       </c>
@@ -8526,7 +8334,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="270" customHeight="1">
+    <row r="154" spans="1:6" ht="252" customHeight="1">
       <c r="A154" s="4" t="s">
         <v>406</v>
       </c>
@@ -8546,7 +8354,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="270" customHeight="1">
+    <row r="155" spans="1:6" ht="252" customHeight="1">
       <c r="A155" s="4" t="s">
         <v>409</v>
       </c>
@@ -8566,7 +8374,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="252" customHeight="1">
+    <row r="156" spans="1:6" ht="234" customHeight="1">
       <c r="A156" s="4" t="s">
         <v>412</v>
       </c>
@@ -8586,7 +8394,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="252" customHeight="1">
+    <row r="157" spans="1:6" ht="234" customHeight="1">
       <c r="A157" s="4" t="s">
         <v>415</v>
       </c>
@@ -8606,7 +8414,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="252" customHeight="1">
+    <row r="158" spans="1:6" ht="234" customHeight="1">
       <c r="A158" s="4" t="s">
         <v>418</v>
       </c>
@@ -8626,7 +8434,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="252" customHeight="1">
+    <row r="159" spans="1:6" ht="234" customHeight="1">
       <c r="A159" s="4" t="s">
         <v>421</v>
       </c>
@@ -8646,7 +8454,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="198" customHeight="1">
+    <row r="160" spans="1:6" ht="180" customHeight="1">
       <c r="A160" s="4" t="s">
         <v>424</v>
       </c>
@@ -8666,7 +8474,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="198" customHeight="1">
+    <row r="161" spans="1:6" ht="180" customHeight="1">
       <c r="A161" s="4" t="s">
         <v>427</v>
       </c>
@@ -8686,7 +8494,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="198" customHeight="1">
+    <row r="162" spans="1:6" ht="180" customHeight="1">
       <c r="A162" s="4" t="s">
         <v>430</v>
       </c>
@@ -8706,7 +8514,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="198" customHeight="1">
+    <row r="163" spans="1:6" ht="180" customHeight="1">
       <c r="A163" s="4" t="s">
         <v>432</v>
       </c>
@@ -8726,7 +8534,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="144" customHeight="1">
+    <row r="164" spans="1:6" ht="126" customHeight="1">
       <c r="A164" s="4" t="s">
         <v>434</v>
       </c>
@@ -8746,7 +8554,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="144" customHeight="1">
+    <row r="165" spans="1:6" ht="126" customHeight="1">
       <c r="A165" s="4" t="s">
         <v>437</v>
       </c>
@@ -8766,7 +8574,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="216" customHeight="1">
+    <row r="166" spans="1:6" ht="198" customHeight="1">
       <c r="A166" s="4" t="s">
         <v>440</v>
       </c>
@@ -8786,7 +8594,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="216" customHeight="1">
+    <row r="167" spans="1:6" ht="198" customHeight="1">
       <c r="A167" s="4" t="s">
         <v>443</v>
       </c>
@@ -8806,7 +8614,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="216" customHeight="1">
+    <row r="168" spans="1:6" ht="198" customHeight="1">
       <c r="A168" s="4" t="s">
         <v>446</v>
       </c>
@@ -8826,7 +8634,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="216" customHeight="1">
+    <row r="169" spans="1:6" ht="198" customHeight="1">
       <c r="A169" s="4" t="s">
         <v>449</v>
       </c>
@@ -8846,7 +8654,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="234" customHeight="1">
+    <row r="170" spans="1:6" ht="216" customHeight="1">
       <c r="A170" s="4" t="s">
         <v>452</v>
       </c>
@@ -8866,7 +8674,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="234" customHeight="1">
+    <row r="171" spans="1:6" ht="216" customHeight="1">
       <c r="A171" s="4" t="s">
         <v>455</v>
       </c>
@@ -8886,7 +8694,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="234" customHeight="1">
+    <row r="172" spans="1:6" ht="216" customHeight="1">
       <c r="A172" s="4" t="s">
         <v>458</v>
       </c>
@@ -8906,7 +8714,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="234" customHeight="1">
+    <row r="173" spans="1:6" ht="216" customHeight="1">
       <c r="A173" s="4" t="s">
         <v>461</v>
       </c>
@@ -8926,7 +8734,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="216" customHeight="1">
+    <row r="174" spans="1:6" ht="198" customHeight="1">
       <c r="A174" s="4" t="s">
         <v>464</v>
       </c>
@@ -8946,7 +8754,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="216" customHeight="1">
+    <row r="175" spans="1:6" ht="198" customHeight="1">
       <c r="A175" s="4" t="s">
         <v>467</v>
       </c>
@@ -8966,7 +8774,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="216" customHeight="1">
+    <row r="176" spans="1:6" ht="198" customHeight="1">
       <c r="A176" s="4" t="s">
         <v>470</v>
       </c>
@@ -8986,7 +8794,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="216" customHeight="1">
+    <row r="177" spans="1:6" ht="198" customHeight="1">
       <c r="A177" s="4" t="s">
         <v>473</v>
       </c>
@@ -9006,7 +8814,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="252" customHeight="1">
+    <row r="178" spans="1:6" ht="234" customHeight="1">
       <c r="A178" s="4" t="s">
         <v>476</v>
       </c>
@@ -9026,7 +8834,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="252" customHeight="1">
+    <row r="179" spans="1:6" ht="234" customHeight="1">
       <c r="A179" s="4" t="s">
         <v>479</v>
       </c>
@@ -9046,7 +8854,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="252" customHeight="1">
+    <row r="180" spans="1:6" ht="234" customHeight="1">
       <c r="A180" s="4" t="s">
         <v>482</v>
       </c>
@@ -9066,7 +8874,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="252" customHeight="1">
+    <row r="181" spans="1:6" ht="234" customHeight="1">
       <c r="A181" s="4" t="s">
         <v>485</v>
       </c>
@@ -9086,7 +8894,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="270" customHeight="1">
+    <row r="182" spans="1:6" ht="252" customHeight="1">
       <c r="A182" s="4" t="s">
         <v>488</v>
       </c>
@@ -9106,7 +8914,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="270" customHeight="1">
+    <row r="183" spans="1:6" ht="252" customHeight="1">
       <c r="A183" s="4" t="s">
         <v>491</v>
       </c>
@@ -9126,7 +8934,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="270" customHeight="1">
+    <row r="184" spans="1:6" ht="252" customHeight="1">
       <c r="A184" s="4" t="s">
         <v>494</v>
       </c>
@@ -9146,7 +8954,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="270" customHeight="1">
+    <row r="185" spans="1:6" ht="252" customHeight="1">
       <c r="A185" s="4" t="s">
         <v>497</v>
       </c>
@@ -9166,7 +8974,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="252" customHeight="1">
+    <row r="186" spans="1:6" ht="234" customHeight="1">
       <c r="A186" s="4" t="s">
         <v>500</v>
       </c>
@@ -9186,7 +8994,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="252" customHeight="1">
+    <row r="187" spans="1:6" ht="234" customHeight="1">
       <c r="A187" s="4" t="s">
         <v>503</v>
       </c>
@@ -9206,7 +9014,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="252" customHeight="1">
+    <row r="188" spans="1:6" ht="234" customHeight="1">
       <c r="A188" s="4" t="s">
         <v>506</v>
       </c>
@@ -9226,7 +9034,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="252" customHeight="1">
+    <row r="189" spans="1:6" ht="234" customHeight="1">
       <c r="A189" s="4" t="s">
         <v>509</v>
       </c>
@@ -9246,7 +9054,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="198" customHeight="1">
+    <row r="190" spans="1:6" ht="180" customHeight="1">
       <c r="A190" s="4" t="s">
         <v>512</v>
       </c>
@@ -9266,7 +9074,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="198" customHeight="1">
+    <row r="191" spans="1:6" ht="180" customHeight="1">
       <c r="A191" s="4" t="s">
         <v>515</v>
       </c>
@@ -9286,7 +9094,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="198" customHeight="1">
+    <row r="192" spans="1:6" ht="180" customHeight="1">
       <c r="A192" s="4" t="s">
         <v>518</v>
       </c>
@@ -9306,7 +9114,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="198" customHeight="1">
+    <row r="193" spans="1:6" ht="180" customHeight="1">
       <c r="A193" s="4" t="s">
         <v>520</v>
       </c>

--- a/maps/contratarPacoteDados/exportedScenarios/scenarios.xlsx
+++ b/maps/contratarPacoteDados/exportedScenarios/scenarios.xlsx
@@ -1142,7 +1142,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacote vazio
 Quer algo mais</t>
   </si>
@@ -1166,7 +1165,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacote vazio
 Não quer mais nada</t>
   </si>
@@ -1190,7 +1188,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -1219,7 +1216,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -1248,7 +1244,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -1277,7 +1272,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -1306,7 +1300,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -1337,7 +1330,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -1368,7 +1360,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -1399,7 +1390,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -1430,7 +1420,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -1460,7 +1449,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -1490,7 +1478,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Não confirma contratação
@@ -1519,7 +1506,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Não confirma contratação
@@ -1548,7 +1534,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -1580,7 +1565,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -1612,7 +1596,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -1644,7 +1627,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -1676,7 +1658,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -1710,7 +1691,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -1744,7 +1724,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -1778,7 +1757,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -1812,7 +1790,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -1845,7 +1822,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -1878,7 +1854,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -1910,7 +1885,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -1942,7 +1916,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -1970,7 +1943,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -1998,7 +1970,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Não quer ouvir de novo
@@ -2017,7 +1988,6 @@
 Sucesso no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Não quer ouvir de novo
@@ -2728,7 +2698,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacote vazio
 Quer algo mais</t>
   </si>
@@ -2744,7 +2713,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacote vazio
 Não quer mais nada</t>
   </si>
@@ -2760,7 +2728,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -2780,7 +2747,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -2800,7 +2766,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -2820,7 +2785,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -2840,7 +2804,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -2861,7 +2824,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -2882,7 +2844,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -2903,7 +2864,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -2924,7 +2884,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -2944,7 +2903,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -2964,7 +2922,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Não confirma contratação
@@ -2984,7 +2941,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Não confirma contratação
@@ -3004,7 +2960,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -3026,7 +2981,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -3048,7 +3002,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -3070,7 +3023,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -3092,7 +3044,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -3115,7 +3066,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -3138,7 +3088,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -3161,7 +3110,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -3184,7 +3132,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -3206,7 +3153,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -3228,7 +3174,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -3250,7 +3195,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -3272,7 +3216,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -3291,7 +3234,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -3310,7 +3252,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Não quer ouvir de novo
@@ -3329,7 +3270,6 @@
 Erro no billing
 Cliente sem débitos
 É titular
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Não quer ouvir de novo
@@ -4289,7 +4229,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacote vazio
 Quer algo mais</t>
   </si>
@@ -4312,7 +4251,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacote vazio
 Não quer mais nada</t>
   </si>
@@ -4335,7 +4273,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -4363,7 +4300,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -4391,7 +4327,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -4419,7 +4354,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -4447,7 +4381,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -4477,7 +4410,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -4507,7 +4439,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -4537,7 +4468,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -4567,7 +4497,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -4596,7 +4525,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Confirma contratação
@@ -4625,7 +4553,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Não confirma contratação
@@ -4653,7 +4580,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Pacote escolhido
 Não confirma contratação
@@ -4681,7 +4607,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -4712,7 +4637,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -4743,7 +4667,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -4774,7 +4697,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -4805,7 +4727,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -4838,7 +4759,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -4871,7 +4791,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -4904,7 +4823,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -4937,7 +4855,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -4969,7 +4886,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -5001,7 +4917,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -5032,7 +4947,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -5063,7 +4977,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -5090,7 +5003,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Quer ouvir opções de novo
@@ -5117,7 +5029,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Não quer ouvir de novo
@@ -5133,7 +5044,6 @@
 Não é a segunda contratação
 Não é BTO
 Navegação normal
-Internet sem problemas
 Pacotes disponíveis
 Nenhum pacote escolhido
 Não quer ouvir de novo
@@ -6014,7 +5924,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="180" customHeight="1">
+    <row r="38" spans="1:6" ht="162" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>124</v>
       </c>
@@ -6034,7 +5944,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="180" customHeight="1">
+    <row r="39" spans="1:6" ht="162" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>127</v>
       </c>
@@ -6054,7 +5964,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="252" customHeight="1">
+    <row r="40" spans="1:6" ht="234" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>130</v>
       </c>
@@ -6074,7 +5984,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="252" customHeight="1">
+    <row r="41" spans="1:6" ht="234" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>133</v>
       </c>
@@ -6094,7 +6004,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="252" customHeight="1">
+    <row r="42" spans="1:6" ht="234" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>136</v>
       </c>
@@ -6114,7 +6024,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="252" customHeight="1">
+    <row r="43" spans="1:6" ht="234" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>139</v>
       </c>
@@ -6134,7 +6044,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="270" customHeight="1">
+    <row r="44" spans="1:6" ht="252" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>142</v>
       </c>
@@ -6154,7 +6064,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="270" customHeight="1">
+    <row r="45" spans="1:6" ht="252" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>145</v>
       </c>
@@ -6174,7 +6084,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="270" customHeight="1">
+    <row r="46" spans="1:6" ht="252" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>148</v>
       </c>
@@ -6194,7 +6104,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="270" customHeight="1">
+    <row r="47" spans="1:6" ht="252" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>151</v>
       </c>
@@ -6214,7 +6124,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="252" customHeight="1">
+    <row r="48" spans="1:6" ht="234" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>154</v>
       </c>
@@ -6234,7 +6144,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="252" customHeight="1">
+    <row r="49" spans="1:6" ht="234" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>157</v>
       </c>
@@ -6254,7 +6164,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="252" customHeight="1">
+    <row r="50" spans="1:6" ht="234" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>160</v>
       </c>
@@ -6274,7 +6184,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="252" customHeight="1">
+    <row r="51" spans="1:6" ht="234" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>163</v>
       </c>
@@ -6294,7 +6204,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="288" customHeight="1">
+    <row r="52" spans="1:6" ht="270" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>166</v>
       </c>
@@ -6314,7 +6224,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="288" customHeight="1">
+    <row r="53" spans="1:6" ht="270" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>169</v>
       </c>
@@ -6334,7 +6244,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="288" customHeight="1">
+    <row r="54" spans="1:6" ht="270" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>172</v>
       </c>
@@ -6354,7 +6264,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="288" customHeight="1">
+    <row r="55" spans="1:6" ht="270" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>175</v>
       </c>
@@ -6374,7 +6284,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="306" customHeight="1">
+    <row r="56" spans="1:6" ht="288" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>178</v>
       </c>
@@ -6394,7 +6304,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="306" customHeight="1">
+    <row r="57" spans="1:6" ht="288" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>181</v>
       </c>
@@ -6414,7 +6324,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="306" customHeight="1">
+    <row r="58" spans="1:6" ht="288" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>184</v>
       </c>
@@ -6434,7 +6344,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="306" customHeight="1">
+    <row r="59" spans="1:6" ht="288" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>187</v>
       </c>
@@ -6454,7 +6364,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="288" customHeight="1">
+    <row r="60" spans="1:6" ht="270" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>190</v>
       </c>
@@ -6474,7 +6384,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="288" customHeight="1">
+    <row r="61" spans="1:6" ht="270" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>193</v>
       </c>
@@ -6494,7 +6404,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="288" customHeight="1">
+    <row r="62" spans="1:6" ht="270" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>196</v>
       </c>
@@ -6514,7 +6424,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="288" customHeight="1">
+    <row r="63" spans="1:6" ht="270" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>199</v>
       </c>
@@ -6534,7 +6444,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="234" customHeight="1">
+    <row r="64" spans="1:6" ht="216" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>202</v>
       </c>
@@ -6554,7 +6464,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="234" customHeight="1">
+    <row r="65" spans="1:6" ht="216" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>205</v>
       </c>
@@ -6574,7 +6484,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="234" customHeight="1">
+    <row r="66" spans="1:6" ht="216" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>208</v>
       </c>
@@ -6594,7 +6504,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="234" customHeight="1">
+    <row r="67" spans="1:6" ht="216" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>210</v>
       </c>
@@ -7294,7 +7204,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="180" customHeight="1">
+    <row r="102" spans="1:6" ht="162" customHeight="1">
       <c r="A102" s="4" t="s">
         <v>282</v>
       </c>
@@ -7314,7 +7224,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="180" customHeight="1">
+    <row r="103" spans="1:6" ht="162" customHeight="1">
       <c r="A103" s="4" t="s">
         <v>284</v>
       </c>
@@ -7334,7 +7244,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="252" customHeight="1">
+    <row r="104" spans="1:6" ht="234" customHeight="1">
       <c r="A104" s="4" t="s">
         <v>286</v>
       </c>
@@ -7354,7 +7264,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="252" customHeight="1">
+    <row r="105" spans="1:6" ht="234" customHeight="1">
       <c r="A105" s="4" t="s">
         <v>288</v>
       </c>
@@ -7374,7 +7284,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="252" customHeight="1">
+    <row r="106" spans="1:6" ht="234" customHeight="1">
       <c r="A106" s="4" t="s">
         <v>290</v>
       </c>
@@ -7394,7 +7304,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="252" customHeight="1">
+    <row r="107" spans="1:6" ht="234" customHeight="1">
       <c r="A107" s="4" t="s">
         <v>292</v>
       </c>
@@ -7414,7 +7324,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="270" customHeight="1">
+    <row r="108" spans="1:6" ht="252" customHeight="1">
       <c r="A108" s="4" t="s">
         <v>294</v>
       </c>
@@ -7434,7 +7344,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="270" customHeight="1">
+    <row r="109" spans="1:6" ht="252" customHeight="1">
       <c r="A109" s="4" t="s">
         <v>296</v>
       </c>
@@ -7454,7 +7364,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="270" customHeight="1">
+    <row r="110" spans="1:6" ht="252" customHeight="1">
       <c r="A110" s="4" t="s">
         <v>298</v>
       </c>
@@ -7474,7 +7384,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="270" customHeight="1">
+    <row r="111" spans="1:6" ht="252" customHeight="1">
       <c r="A111" s="4" t="s">
         <v>300</v>
       </c>
@@ -7494,7 +7404,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="252" customHeight="1">
+    <row r="112" spans="1:6" ht="234" customHeight="1">
       <c r="A112" s="4" t="s">
         <v>302</v>
       </c>
@@ -7514,7 +7424,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="252" customHeight="1">
+    <row r="113" spans="1:6" ht="234" customHeight="1">
       <c r="A113" s="4" t="s">
         <v>304</v>
       </c>
@@ -7534,7 +7444,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="252" customHeight="1">
+    <row r="114" spans="1:6" ht="234" customHeight="1">
       <c r="A114" s="4" t="s">
         <v>306</v>
       </c>
@@ -7554,7 +7464,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="252" customHeight="1">
+    <row r="115" spans="1:6" ht="234" customHeight="1">
       <c r="A115" s="4" t="s">
         <v>308</v>
       </c>
@@ -7574,7 +7484,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="288" customHeight="1">
+    <row r="116" spans="1:6" ht="270" customHeight="1">
       <c r="A116" s="4" t="s">
         <v>310</v>
       </c>
@@ -7594,7 +7504,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="288" customHeight="1">
+    <row r="117" spans="1:6" ht="270" customHeight="1">
       <c r="A117" s="4" t="s">
         <v>312</v>
       </c>
@@ -7614,7 +7524,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="288" customHeight="1">
+    <row r="118" spans="1:6" ht="270" customHeight="1">
       <c r="A118" s="4" t="s">
         <v>314</v>
       </c>
@@ -7634,7 +7544,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="288" customHeight="1">
+    <row r="119" spans="1:6" ht="270" customHeight="1">
       <c r="A119" s="4" t="s">
         <v>316</v>
       </c>
@@ -7654,7 +7564,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="306" customHeight="1">
+    <row r="120" spans="1:6" ht="288" customHeight="1">
       <c r="A120" s="4" t="s">
         <v>318</v>
       </c>
@@ -7674,7 +7584,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="306" customHeight="1">
+    <row r="121" spans="1:6" ht="288" customHeight="1">
       <c r="A121" s="4" t="s">
         <v>320</v>
       </c>
@@ -7694,7 +7604,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="306" customHeight="1">
+    <row r="122" spans="1:6" ht="288" customHeight="1">
       <c r="A122" s="4" t="s">
         <v>322</v>
       </c>
@@ -7714,7 +7624,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="306" customHeight="1">
+    <row r="123" spans="1:6" ht="288" customHeight="1">
       <c r="A123" s="4" t="s">
         <v>324</v>
       </c>
@@ -7734,7 +7644,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="288" customHeight="1">
+    <row r="124" spans="1:6" ht="270" customHeight="1">
       <c r="A124" s="4" t="s">
         <v>326</v>
       </c>
@@ -7754,7 +7664,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="288" customHeight="1">
+    <row r="125" spans="1:6" ht="270" customHeight="1">
       <c r="A125" s="4" t="s">
         <v>328</v>
       </c>
@@ -7774,7 +7684,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="288" customHeight="1">
+    <row r="126" spans="1:6" ht="270" customHeight="1">
       <c r="A126" s="4" t="s">
         <v>330</v>
       </c>
@@ -7794,7 +7704,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="288" customHeight="1">
+    <row r="127" spans="1:6" ht="270" customHeight="1">
       <c r="A127" s="4" t="s">
         <v>332</v>
       </c>
@@ -7814,7 +7724,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="234" customHeight="1">
+    <row r="128" spans="1:6" ht="216" customHeight="1">
       <c r="A128" s="4" t="s">
         <v>334</v>
       </c>
@@ -7834,7 +7744,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="234" customHeight="1">
+    <row r="129" spans="1:6" ht="216" customHeight="1">
       <c r="A129" s="4" t="s">
         <v>336</v>
       </c>
@@ -7854,7 +7764,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="234" customHeight="1">
+    <row r="130" spans="1:6" ht="216" customHeight="1">
       <c r="A130" s="4" t="s">
         <v>338</v>
       </c>
@@ -7874,7 +7784,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="234" customHeight="1">
+    <row r="131" spans="1:6" ht="216" customHeight="1">
       <c r="A131" s="4" t="s">
         <v>340</v>
       </c>
@@ -8534,7 +8444,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="126" customHeight="1">
+    <row r="164" spans="1:6" ht="108" customHeight="1">
       <c r="A164" s="4" t="s">
         <v>434</v>
       </c>
@@ -8554,7 +8464,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="126" customHeight="1">
+    <row r="165" spans="1:6" ht="108" customHeight="1">
       <c r="A165" s="4" t="s">
         <v>437</v>
       </c>
@@ -8574,7 +8484,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="198" customHeight="1">
+    <row r="166" spans="1:6" ht="180" customHeight="1">
       <c r="A166" s="4" t="s">
         <v>440</v>
       </c>
@@ -8594,7 +8504,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="198" customHeight="1">
+    <row r="167" spans="1:6" ht="180" customHeight="1">
       <c r="A167" s="4" t="s">
         <v>443</v>
       </c>
@@ -8614,7 +8524,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="198" customHeight="1">
+    <row r="168" spans="1:6" ht="180" customHeight="1">
       <c r="A168" s="4" t="s">
         <v>446</v>
       </c>
@@ -8634,7 +8544,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="198" customHeight="1">
+    <row r="169" spans="1:6" ht="180" customHeight="1">
       <c r="A169" s="4" t="s">
         <v>449</v>
       </c>
@@ -8654,7 +8564,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="216" customHeight="1">
+    <row r="170" spans="1:6" ht="198" customHeight="1">
       <c r="A170" s="4" t="s">
         <v>452</v>
       </c>
@@ -8674,7 +8584,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="216" customHeight="1">
+    <row r="171" spans="1:6" ht="198" customHeight="1">
       <c r="A171" s="4" t="s">
         <v>455</v>
       </c>
@@ -8694,7 +8604,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="216" customHeight="1">
+    <row r="172" spans="1:6" ht="198" customHeight="1">
       <c r="A172" s="4" t="s">
         <v>458</v>
       </c>
@@ -8714,7 +8624,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="216" customHeight="1">
+    <row r="173" spans="1:6" ht="198" customHeight="1">
       <c r="A173" s="4" t="s">
         <v>461</v>
       </c>
@@ -8734,7 +8644,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="198" customHeight="1">
+    <row r="174" spans="1:6" ht="180" customHeight="1">
       <c r="A174" s="4" t="s">
         <v>464</v>
       </c>
@@ -8754,7 +8664,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="198" customHeight="1">
+    <row r="175" spans="1:6" ht="180" customHeight="1">
       <c r="A175" s="4" t="s">
         <v>467</v>
       </c>
@@ -8774,7 +8684,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="198" customHeight="1">
+    <row r="176" spans="1:6" ht="180" customHeight="1">
       <c r="A176" s="4" t="s">
         <v>470</v>
       </c>
@@ -8794,7 +8704,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="198" customHeight="1">
+    <row r="177" spans="1:6" ht="180" customHeight="1">
       <c r="A177" s="4" t="s">
         <v>473</v>
       </c>
@@ -8814,7 +8724,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="234" customHeight="1">
+    <row r="178" spans="1:6" ht="216" customHeight="1">
       <c r="A178" s="4" t="s">
         <v>476</v>
       </c>
@@ -8834,7 +8744,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="234" customHeight="1">
+    <row r="179" spans="1:6" ht="216" customHeight="1">
       <c r="A179" s="4" t="s">
         <v>479</v>
       </c>
@@ -8854,7 +8764,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="234" customHeight="1">
+    <row r="180" spans="1:6" ht="216" customHeight="1">
       <c r="A180" s="4" t="s">
         <v>482</v>
       </c>
@@ -8874,7 +8784,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="234" customHeight="1">
+    <row r="181" spans="1:6" ht="216" customHeight="1">
       <c r="A181" s="4" t="s">
         <v>485</v>
       </c>
@@ -8894,7 +8804,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="252" customHeight="1">
+    <row r="182" spans="1:6" ht="234" customHeight="1">
       <c r="A182" s="4" t="s">
         <v>488</v>
       </c>
@@ -8914,7 +8824,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="252" customHeight="1">
+    <row r="183" spans="1:6" ht="234" customHeight="1">
       <c r="A183" s="4" t="s">
         <v>491</v>
       </c>
@@ -8934,7 +8844,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="252" customHeight="1">
+    <row r="184" spans="1:6" ht="234" customHeight="1">
       <c r="A184" s="4" t="s">
         <v>494</v>
       </c>
@@ -8954,7 +8864,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="252" customHeight="1">
+    <row r="185" spans="1:6" ht="234" customHeight="1">
       <c r="A185" s="4" t="s">
         <v>497</v>
       </c>
@@ -8974,7 +8884,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="234" customHeight="1">
+    <row r="186" spans="1:6" ht="216" customHeight="1">
       <c r="A186" s="4" t="s">
         <v>500</v>
       </c>
@@ -8994,7 +8904,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="234" customHeight="1">
+    <row r="187" spans="1:6" ht="216" customHeight="1">
       <c r="A187" s="4" t="s">
         <v>503</v>
       </c>
@@ -9014,7 +8924,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="234" customHeight="1">
+    <row r="188" spans="1:6" ht="216" customHeight="1">
       <c r="A188" s="4" t="s">
         <v>506</v>
       </c>
@@ -9034,7 +8944,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="234" customHeight="1">
+    <row r="189" spans="1:6" ht="216" customHeight="1">
       <c r="A189" s="4" t="s">
         <v>509</v>
       </c>
@@ -9054,7 +8964,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="180" customHeight="1">
+    <row r="190" spans="1:6" ht="162" customHeight="1">
       <c r="A190" s="4" t="s">
         <v>512</v>
       </c>
@@ -9074,7 +8984,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="180" customHeight="1">
+    <row r="191" spans="1:6" ht="162" customHeight="1">
       <c r="A191" s="4" t="s">
         <v>515</v>
       </c>
@@ -9094,7 +9004,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="180" customHeight="1">
+    <row r="192" spans="1:6" ht="162" customHeight="1">
       <c r="A192" s="4" t="s">
         <v>518</v>
       </c>
@@ -9114,7 +9024,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="180" customHeight="1">
+    <row r="193" spans="1:6" ht="162" customHeight="1">
       <c r="A193" s="4" t="s">
         <v>520</v>
       </c>
